--- a/SubsistenceFishingCodebook.xlsx
+++ b/SubsistenceFishingCodebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\My Drive\PhD\Manuscripts\SubsistenceFishingAL\Data and Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80905A13-A222-43E9-A187-F423FD5C3022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F988B9-12A0-497E-9B2C-46A0FE82C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="372">
   <si>
     <t>Variable</t>
   </si>
@@ -997,6 +997,150 @@
   </si>
   <si>
     <t>Binary categorization of financial assistance status</t>
+  </si>
+  <si>
+    <t>AccessLV</t>
+  </si>
+  <si>
+    <t>AestheticsLV</t>
+  </si>
+  <si>
+    <t>CommunityLV</t>
+  </si>
+  <si>
+    <t>ConvenienceLV</t>
+  </si>
+  <si>
+    <t>CultureLV</t>
+  </si>
+  <si>
+    <t>FishLV</t>
+  </si>
+  <si>
+    <t>HappyLV</t>
+  </si>
+  <si>
+    <t>HealthyLV</t>
+  </si>
+  <si>
+    <t>HistoricLV</t>
+  </si>
+  <si>
+    <t>InfrastructureLV</t>
+  </si>
+  <si>
+    <t>ParkingLV</t>
+  </si>
+  <si>
+    <t>PastLV</t>
+  </si>
+  <si>
+    <t>SafetyLV</t>
+  </si>
+  <si>
+    <t>SpiritualLV</t>
+  </si>
+  <si>
+    <t>TherapeuticLV</t>
+  </si>
+  <si>
+    <t>WildernessLV</t>
+  </si>
+  <si>
+    <t>" ", "Access"</t>
+  </si>
+  <si>
+    <t>" ", "Convenience"</t>
+  </si>
+  <si>
+    <t>" ", "Culture"</t>
+  </si>
+  <si>
+    <t>" ", "Historic"</t>
+  </si>
+  <si>
+    <t>" ", "Parking"</t>
+  </si>
+  <si>
+    <t>" ", "Safety"</t>
+  </si>
+  <si>
+    <t>" ", "Spiritual"</t>
+  </si>
+  <si>
+    <t>" ", "Therapeutic"</t>
+  </si>
+  <si>
+    <t>" ", "Wilderness"</t>
+  </si>
+  <si>
+    <t>" ", "Aesthetics/Scenery"</t>
+  </si>
+  <si>
+    <t>" ", "Community/Sense of belonging"</t>
+  </si>
+  <si>
+    <t>" ", "Fish diversity/abundance"</t>
+  </si>
+  <si>
+    <t>" ", "Happy/Proud feelings"</t>
+  </si>
+  <si>
+    <t>" ", "Healthy/Clean environment"</t>
+  </si>
+  <si>
+    <t>" ", "Infrastructure (piers, seawalls)"</t>
+  </si>
+  <si>
+    <t>" ", "Past experience or milestones"</t>
+  </si>
+  <si>
+    <t>Identified access as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified aesthetics/scenery as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified community/sense of belonging as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified convenience as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified culture as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified fish diversity/abundance as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified happy/proud feelings as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified healthy/clean environment as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified historical significance as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified infrastructure (piers, seawalls) as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified parking as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified past experience or milestones as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified safety as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified spiritual value as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified therapeutic value as a fishing motivation that day</t>
+  </si>
+  <si>
+    <t>Identified wilderness as a fishing motivation that day</t>
   </si>
 </sst>
 </file>
@@ -1314,16 +1458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="61.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2633,347 +2777,571 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>341</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>342</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>351</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="D116" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>344</v>
       </c>
       <c r="D120" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="D122" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="D123" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="D125" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>201</v>
       </c>
       <c r="D126" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>308</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="D129" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="D130" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="D131" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="D132" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D133" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D134" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>289</v>
+      </c>
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>293</v>
+      </c>
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>283</v>
+      </c>
+      <c r="D141" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>303</v>
+      </c>
+      <c r="D143" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>305</v>
+      </c>
+      <c r="D144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>306</v>
+      </c>
+      <c r="D145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>311</v>
+      </c>
+      <c r="D147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>313</v>
+      </c>
+      <c r="D148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>317</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>315</v>
+      </c>
+      <c r="D149" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>320</v>
+      </c>
+      <c r="D150" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>319</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
         <v>322</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D151" t="s">
         <v>323</v>
       </c>
     </row>
